--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 23,43</t>
+          <t>11,11; 23,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 19,01</t>
+          <t>8,1; 19,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 25,23</t>
+          <t>13,25; 25,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 30,31</t>
+          <t>11,55; 29,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 104,61</t>
+          <t>38,68; 101,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 145,62</t>
+          <t>45,28; 149,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 155,69</t>
+          <t>60,49; 161,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,76; 311,37</t>
+          <t>59,5; 299,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,38</t>
+          <t>2,61; 14,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,76</t>
+          <t>3,99; 13,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,71</t>
+          <t>4,72; 15,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,31</t>
+          <t>-6,31; 9,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 43,03</t>
+          <t>6,99; 42,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 78,14</t>
+          <t>17,65; 75,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 66,32</t>
+          <t>15,83; 65,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 26,92</t>
+          <t>-16,19; 31,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,95</t>
+          <t>-5,6; 5,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,12</t>
+          <t>-2,0; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 4,56</t>
+          <t>-5,71; 4,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 9,43</t>
+          <t>-0,9; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 14,59</t>
+          <t>-11,66; 13,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 36,21</t>
+          <t>-6,81; 35,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 13,56</t>
+          <t>-15,03; 13,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 30,98</t>
+          <t>-2,76; 34,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 1,27</t>
+          <t>-12,65; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,77</t>
+          <t>-1,72; 9,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 5,08</t>
+          <t>-6,0; 5,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 11,13</t>
+          <t>-1,52; 11,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 2,65</t>
+          <t>-23,76; 2,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 39,33</t>
+          <t>-6,5; 41,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 14,04</t>
+          <t>-14,52; 14,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 42,68</t>
+          <t>-4,28; 45,03</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -0,08</t>
+          <t>-14,06; 0,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 7,05</t>
+          <t>-5,17; 7,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 16,99</t>
+          <t>3,26; 16,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,6</t>
+          <t>-6,17; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 0,12</t>
+          <t>-26,13; 0,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 32,03</t>
+          <t>-19,43; 32,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 52,17</t>
+          <t>7,96; 49,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 9,61</t>
+          <t>-14,36; 10,26</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 16,65</t>
+          <t>5,33; 16,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 23,29</t>
+          <t>12,99; 23,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,48</t>
+          <t>8,17; 19,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 16,39</t>
+          <t>-3,49; 16,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 41,54</t>
+          <t>11,61; 42,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,54; 113,59</t>
+          <t>47,64; 112,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 47,46</t>
+          <t>17,44; 47,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 47,1</t>
+          <t>-9,76; 47,4</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,68; 7,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,36; 10,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,27; 11,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,63</t>
+          <t>2,16; 8,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,44; 19,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>26,94; 49,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>17,74; 34,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 31,06</t>
+          <t>7,03; 28,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 23,22</t>
+          <t>11,01; 23,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 19,03</t>
+          <t>8,35; 19,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 25,78</t>
+          <t>12,78; 25,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,68; 101,71</t>
+          <t>37,07; 103,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,28; 149,66</t>
+          <t>42,69; 147,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,49; 161,21</t>
+          <t>57,11; 162,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,22</t>
+          <t>2,97; 13,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,21</t>
+          <t>4,1; 12,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,76</t>
+          <t>5,12; 16,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 42,9</t>
+          <t>7,9; 39,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 75,21</t>
+          <t>17,28; 76,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,83; 65,11</t>
+          <t>17,51; 69,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,69</t>
+          <t>-5,48; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,13</t>
+          <t>-1,79; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,52</t>
+          <t>-5,56; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 13,96</t>
+          <t>-11,46; 14,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 35,52</t>
+          <t>-6,51; 36,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 13,75</t>
+          <t>-14,87; 15,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 1,15</t>
+          <t>-11,69; 0,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,12</t>
+          <t>-1,6; 8,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,11</t>
+          <t>-5,62; 5,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 2,44</t>
+          <t>-22,43; 1,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 41,16</t>
+          <t>-5,89; 38,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 14,1</t>
+          <t>-13,7; 16,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 0,32</t>
+          <t>-13,54; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 7,04</t>
+          <t>-5,57; 7,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 16,26</t>
+          <t>3,92; 17,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 0,02</t>
+          <t>-24,76; 1,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 32,87</t>
+          <t>-20,0; 33,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 49,44</t>
+          <t>10,41; 53,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 16,77</t>
+          <t>4,74; 16,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,99; 23,57</t>
+          <t>13,2; 23,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 19,28</t>
+          <t>8,37; 19,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,61; 42,04</t>
+          <t>10,18; 41,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,64; 112,06</t>
+          <t>48,99; 111,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 47,28</t>
+          <t>17,87; 47,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,64</t>
+          <t>2,59; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,6</t>
+          <t>6,14; 10,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,34</t>
+          <t>6,31; 11,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 19,46</t>
+          <t>6,12; 18,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,94; 49,66</t>
+          <t>25,91; 49,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 34,72</t>
+          <t>18,19; 34,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 23,19</t>
+          <t>11,3; 23,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 19,37</t>
+          <t>8,07; 19,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 25,98</t>
+          <t>12,82; 25,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 29,85</t>
+          <t>12,17; 30,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,07; 103,31</t>
+          <t>38,82; 104,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,69; 147,21</t>
+          <t>43,48; 145,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,11; 162,77</t>
+          <t>56,26; 155,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,5; 299,77</t>
+          <t>61,76; 311,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,44</t>
+          <t>3,43; 14,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 12,91</t>
+          <t>3,71; 13,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,17</t>
+          <t>5,06; 15,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 9,48</t>
+          <t>-6,61; 8,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 39,85</t>
+          <t>9,05; 43,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 76,64</t>
+          <t>16,39; 78,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 69,0</t>
+          <t>17,81; 66,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 31,39</t>
+          <t>-17,42; 26,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 5,93</t>
+          <t>-5,26; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 8,06</t>
+          <t>-1,53; 8,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,07</t>
+          <t>-5,85; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,37</t>
+          <t>-1,2; 9,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 14,25</t>
+          <t>-11,46; 14,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 36,22</t>
+          <t>-5,38; 36,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 15,33</t>
+          <t>-15,69; 13,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 34,23</t>
+          <t>-3,06; 30,98</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 0,56</t>
+          <t>-12,12; 1,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 8,67</t>
+          <t>-2,07; 8,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,71</t>
+          <t>-6,01; 5,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 11,61</t>
+          <t>-1,77; 11,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 1,2</t>
+          <t>-23,26; 2,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 38,7</t>
+          <t>-7,26; 39,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 16,08</t>
+          <t>-14,59; 14,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 45,03</t>
+          <t>-4,97; 42,68</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 0,4</t>
+          <t>-13,67; -0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 7,17</t>
+          <t>-4,7; 7,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 17,39</t>
+          <t>3,9; 16,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 3,6</t>
+          <t>-6,5; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 1,17</t>
+          <t>-25,85; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 33,74</t>
+          <t>-17,53; 32,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,41; 53,46</t>
+          <t>9,79; 52,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 10,26</t>
+          <t>-15,47; 9,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 16,43</t>
+          <t>5,35; 16,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,48</t>
+          <t>12,72; 23,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 19,4</t>
+          <t>8,15; 19,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 16,39</t>
+          <t>-4,32; 16,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,18; 41,08</t>
+          <t>11,3; 41,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,99; 111,58</t>
+          <t>47,54; 113,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,87; 47,86</t>
+          <t>17,46; 47,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 47,4</t>
+          <t>-11,51; 47,1</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,42</t>
+          <t>2,44; 7,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,59</t>
+          <t>6,25; 10,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,36</t>
+          <t>6,48; 11,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,91</t>
+          <t>2,59; 9,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,65</t>
+          <t>5,71; 18,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,91; 49,21</t>
+          <t>26,67; 49,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 34,92</t>
+          <t>18,58; 34,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 28,58</t>
+          <t>7,84; 31,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>156,32%</t>
+          <t>154,42%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 30,31</t>
+          <t>11,66; 30,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,76; 311,37</t>
+          <t>53,2; 310,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>-8,46%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 8,31</t>
+          <t>-17,07; 5,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 26,92</t>
+          <t>-41,86; 17,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,18%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 9,43</t>
+          <t>-1,12; 9,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 30,98</t>
+          <t>-3,36; 29,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>52,36%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 11,13</t>
+          <t>1,25; 33,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 42,68</t>
+          <t>3,14; 227,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,6</t>
+          <t>-6,51; 3,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 9,61</t>
+          <t>-15,39; 9,78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,66%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>-21,48%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 16,65</t>
+          <t>1,16; 16,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 23,29</t>
+          <t>4,05; 18,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,48</t>
+          <t>0,11; 15,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 16,39</t>
+          <t>-25,13; 7,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 41,54</t>
+          <t>1,78; 47,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,54; 113,59</t>
+          <t>15,69; 106,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,46; 47,46</t>
+          <t>0,28; 43,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 47,1</t>
+          <t>-74,46; 23,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>11,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>17,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>21,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>52,1%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,47; 20,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 32,11</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 24,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 27,5</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 45,83</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46,54; 141,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,54; 53,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35,73; 74,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,44; 7,41</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,25; 10,57</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,48; 11,29</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 9,63</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 13,89</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,71; 18,66</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>26,67; 49,09</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>18,58; 34,81</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 31,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 55,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 23,43</t>
+          <t>11,41; 22,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 19,01</t>
+          <t>7,81; 18,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 25,23</t>
+          <t>13,06; 25,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 30,99</t>
+          <t>11,42; 31,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 104,61</t>
+          <t>39,83; 100,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,48; 145,62</t>
+          <t>43,22; 141,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,26; 155,69</t>
+          <t>57,74; 153,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,2; 310,7</t>
+          <t>47,56; 335,88</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 14,38</t>
+          <t>2,25; 13,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,76</t>
+          <t>3,4; 12,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,71</t>
+          <t>4,82; 15,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 5,89</t>
+          <t>-18,45; 5,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 43,03</t>
+          <t>5,97; 38,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 78,14</t>
+          <t>15,11; 74,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 66,32</t>
+          <t>16,15; 65,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 17,41</t>
+          <t>-47,17; 15,33</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,95</t>
+          <t>-5,18; 6,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,12</t>
+          <t>-1,76; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 4,56</t>
+          <t>-5,65; 4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,34</t>
+          <t>-0,9; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 14,59</t>
+          <t>-11,1; 15,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 36,21</t>
+          <t>-7,2; 35,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 13,56</t>
+          <t>-14,71; 15,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 29,64</t>
+          <t>-1,98; 32,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 1,27</t>
+          <t>-12,25; 1,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 8,77</t>
+          <t>-1,91; 8,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 5,08</t>
+          <t>-5,26; 5,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 33,36</t>
+          <t>1,34; 30,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 2,65</t>
+          <t>-22,94; 3,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 39,33</t>
+          <t>-6,66; 39,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 14,04</t>
+          <t>-12,97; 15,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 227,12</t>
+          <t>3,71; 257,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,67; -0,08</t>
+          <t>-13,98; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 7,05</t>
+          <t>-5,3; 6,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 16,99</t>
+          <t>3,78; 17,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 3,55</t>
+          <t>-6,53; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 0,12</t>
+          <t>-25,78; 1,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 32,03</t>
+          <t>-19,41; 33,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 52,17</t>
+          <t>9,6; 53,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 9,78</t>
+          <t>-15,61; 9,48</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 16,68</t>
+          <t>1,48; 16,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,87</t>
+          <t>3,83; 18,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 15,25</t>
+          <t>-0,63; 15,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 7,1</t>
+          <t>-22,49; 7,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 47,4</t>
+          <t>3,23; 49,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 106,99</t>
+          <t>16,67; 111,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 43,79</t>
+          <t>-1,78; 45,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,46; 23,2</t>
+          <t>-66,86; 25,36</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 20,55</t>
+          <t>2,14; 20,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,97; 32,11</t>
+          <t>15,03; 30,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 24,78</t>
+          <t>9,59; 25,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,14; 27,5</t>
+          <t>16,64; 27,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 45,83</t>
+          <t>3,56; 45,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,54; 141,14</t>
+          <t>45,39; 135,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,54; 53,81</t>
+          <t>17,48; 53,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,73; 74,29</t>
+          <t>36,69; 73,82</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,58; 7,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,31; 10,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,47; 11,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,89</t>
+          <t>0,97; 14,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,02; 18,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>27,35; 49,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>18,7; 34,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 55,02</t>
+          <t>4,4; 54,42</t>
         </is>
       </c>
     </row>
